--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H2">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I2">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J2">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N2">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O2">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P2">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q2">
-        <v>61.19609457520932</v>
+        <v>47.90835168167733</v>
       </c>
       <c r="R2">
-        <v>550.7648511768839</v>
+        <v>431.175165135096</v>
       </c>
       <c r="S2">
-        <v>0.0005451269367743267</v>
+        <v>0.0004571991963271917</v>
       </c>
       <c r="T2">
-        <v>0.0005663749045224876</v>
+        <v>0.0004681769023776092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H3">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I3">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J3">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P3">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q3">
-        <v>83.33493909785065</v>
+        <v>67.37041085429865</v>
       </c>
       <c r="R3">
-        <v>750.0144518806559</v>
+        <v>606.3336976886879</v>
       </c>
       <c r="S3">
-        <v>0.0007423369153215445</v>
+        <v>0.0006429296065846125</v>
       </c>
       <c r="T3">
-        <v>0.0007712717372335854</v>
+        <v>0.0006583668433271406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H4">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I4">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J4">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N4">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O4">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P4">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q4">
-        <v>149.9467067628207</v>
+        <v>135.0346934332013</v>
       </c>
       <c r="R4">
-        <v>1349.520360865386</v>
+        <v>1215.312240898812</v>
       </c>
       <c r="S4">
-        <v>0.001335705971180188</v>
+        <v>0.001288663691127577</v>
       </c>
       <c r="T4">
-        <v>0.001387769143043611</v>
+        <v>0.001319605502295855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H5">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I5">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J5">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N5">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O5">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P5">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q5">
-        <v>42.018399827046</v>
+        <v>30.756539755949</v>
       </c>
       <c r="R5">
-        <v>252.110398962276</v>
+        <v>184.539238535694</v>
       </c>
       <c r="S5">
-        <v>0.0003742944994263652</v>
+        <v>0.0002935159479428135</v>
       </c>
       <c r="T5">
-        <v>0.0002592558381971386</v>
+        <v>0.0002003756617979006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H6">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I6">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J6">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N6">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O6">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P6">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q6">
-        <v>240.933105690338</v>
+        <v>172.5012343809906</v>
       </c>
       <c r="R6">
-        <v>2168.397951213042</v>
+        <v>1552.511109428916</v>
       </c>
       <c r="S6">
-        <v>0.002146201106201062</v>
+        <v>0.001646214552495249</v>
       </c>
       <c r="T6">
-        <v>0.002229855772315105</v>
+        <v>0.001685741436178307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J7">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N7">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O7">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P7">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q7">
-        <v>11324.58498459032</v>
+        <v>10966.49243923013</v>
       </c>
       <c r="R7">
-        <v>101921.2648613129</v>
+        <v>98698.43195307112</v>
       </c>
       <c r="S7">
-        <v>0.1008779459823747</v>
+        <v>0.104655479759739</v>
       </c>
       <c r="T7">
-        <v>0.1048099684126322</v>
+        <v>0.1071683387118042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J8">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P8">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q8">
         <v>15421.46776767642</v>
@@ -948,10 +948,10 @@
         <v>138793.2099090878</v>
       </c>
       <c r="S8">
-        <v>0.1373724506949667</v>
+        <v>0.1471702202658728</v>
       </c>
       <c r="T8">
-        <v>0.1427269565998196</v>
+        <v>0.1507038909950264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J9">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N9">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O9">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P9">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q9">
-        <v>27748.24497677838</v>
+        <v>30910.20443384024</v>
       </c>
       <c r="R9">
-        <v>249734.2047910054</v>
+        <v>278191.8399045622</v>
       </c>
       <c r="S9">
-        <v>0.2471777960677657</v>
+        <v>0.2949824013850558</v>
       </c>
       <c r="T9">
-        <v>0.2568122967401911</v>
+        <v>0.3020651568195907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J10">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N10">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O10">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P10">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q10">
-        <v>7775.674952150327</v>
+        <v>7040.345761248416</v>
       </c>
       <c r="R10">
-        <v>46654.04971290196</v>
+        <v>42242.0745674905</v>
       </c>
       <c r="S10">
-        <v>0.06926471202846472</v>
+        <v>0.06718745919908951</v>
       </c>
       <c r="T10">
-        <v>0.04797634216357427</v>
+        <v>0.04586712134687818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J11">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N11">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O11">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P11">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q11">
-        <v>44585.64635424991</v>
+        <v>39486.50738740603</v>
       </c>
       <c r="R11">
-        <v>401270.8171882493</v>
+        <v>355378.5664866542</v>
       </c>
       <c r="S11">
-        <v>0.3971632011798613</v>
+        <v>0.3768278141406866</v>
       </c>
       <c r="T11">
-        <v>0.4126438357259389</v>
+        <v>0.3858757411897477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H12">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I12">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J12">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N12">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O12">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P12">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q12">
-        <v>17.90993219271578</v>
+        <v>16.83753468187644</v>
       </c>
       <c r="R12">
-        <v>161.189389734442</v>
+        <v>151.537812136888</v>
       </c>
       <c r="S12">
-        <v>0.0001595393716187591</v>
+        <v>0.0001606840363833534</v>
       </c>
       <c r="T12">
-        <v>0.0001657579001742846</v>
+        <v>0.0001645421842816464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H13">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I13">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J13">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.309272</v>
       </c>
       <c r="O13">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P13">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q13">
-        <v>24.38918886714756</v>
+        <v>23.67753407231822</v>
       </c>
       <c r="R13">
-        <v>219.502699804328</v>
+        <v>213.097806650864</v>
       </c>
       <c r="S13">
-        <v>0.0002172557564309761</v>
+        <v>0.0002259595491993053</v>
       </c>
       <c r="T13">
-        <v>0.0002257239552931776</v>
+        <v>0.0002313850126085184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H14">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I14">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J14">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N14">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O14">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P14">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q14">
-        <v>43.88409700463256</v>
+        <v>47.45835024851511</v>
       </c>
       <c r="R14">
-        <v>394.956873041693</v>
+        <v>427.125152236636</v>
       </c>
       <c r="S14">
-        <v>0.0003909138898372408</v>
+        <v>0.0004529047406348967</v>
       </c>
       <c r="T14">
-        <v>0.0004061509386110908</v>
+        <v>0.0004637793334851701</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H15">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I15">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J15">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N15">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O15">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P15">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q15">
-        <v>12.297299312523</v>
+        <v>10.80947865366367</v>
       </c>
       <c r="R15">
-        <v>73.783795875138</v>
+        <v>64.85687192198199</v>
       </c>
       <c r="S15">
-        <v>0.000109542760062802</v>
+        <v>0.0001031570650981314</v>
       </c>
       <c r="T15">
-        <v>7.587501318356087E-05</v>
+        <v>7.042263063741403E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H16">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I16">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J16">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N16">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O16">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P16">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q16">
-        <v>70.51259750883567</v>
+        <v>60.62607905726088</v>
       </c>
       <c r="R16">
-        <v>634.6133775795211</v>
+        <v>545.6347115153479</v>
       </c>
       <c r="S16">
-        <v>0.000628117146213511</v>
+        <v>0.0005785670691744831</v>
       </c>
       <c r="T16">
-        <v>0.0006525999078685946</v>
+        <v>0.0005924589116511782</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H17">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I17">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J17">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N17">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O17">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P17">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q17">
-        <v>485.0321161724946</v>
+        <v>28.69050646481867</v>
       </c>
       <c r="R17">
-        <v>2910.192697034968</v>
+        <v>172.143038788912</v>
       </c>
       <c r="S17">
-        <v>0.004320603684951359</v>
+        <v>0.0002737993697861229</v>
       </c>
       <c r="T17">
-        <v>0.002992674836462766</v>
+        <v>0.0001869156695071013</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H18">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I18">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J18">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.309272</v>
       </c>
       <c r="O18">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P18">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q18">
-        <v>660.5016568836852</v>
+        <v>40.34560030358933</v>
       </c>
       <c r="R18">
-        <v>3963.009941302112</v>
+        <v>242.073601821536</v>
       </c>
       <c r="S18">
-        <v>0.005883663777087348</v>
+        <v>0.0003850263135058737</v>
       </c>
       <c r="T18">
-        <v>0.004075331554529053</v>
+        <v>0.0002628473952406045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H19">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I19">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J19">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N19">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O19">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P19">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q19">
-        <v>1188.457678535095</v>
+        <v>80.86718930891067</v>
       </c>
       <c r="R19">
-        <v>7130.746071210571</v>
+        <v>485.203135853464</v>
       </c>
       <c r="S19">
-        <v>0.01058662808930643</v>
+        <v>0.0007717321231782855</v>
       </c>
       <c r="T19">
-        <v>0.007332849248869238</v>
+        <v>0.000526841338592873</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H20">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I20">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J20">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N20">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O20">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P20">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q20">
-        <v>333.032255207838</v>
+        <v>18.418932643867</v>
       </c>
       <c r="R20">
-        <v>1332.129020831352</v>
+        <v>73.67573057546799</v>
       </c>
       <c r="S20">
-        <v>0.002966608480307152</v>
+        <v>0.0001757756404965473</v>
       </c>
       <c r="T20">
-        <v>0.001369884888937259</v>
+        <v>7.999828865473378E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H21">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I21">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J21">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N21">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O21">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P21">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q21">
-        <v>1909.603789591114</v>
+        <v>103.3044888098253</v>
       </c>
       <c r="R21">
-        <v>11457.62273754668</v>
+        <v>619.826932858952</v>
       </c>
       <c r="S21">
-        <v>0.01701050486143525</v>
+        <v>0.0009858558602613547</v>
       </c>
       <c r="T21">
-        <v>0.01178236042145067</v>
+        <v>0.0006730180142569122</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H22">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I22">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J22">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N22">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O22">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P22">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q22">
-        <v>8.647613445882</v>
+        <v>8.131044902144444</v>
       </c>
       <c r="R22">
-        <v>77.828521012938</v>
+        <v>73.1794041193</v>
       </c>
       <c r="S22">
-        <v>7.703182794399766E-05</v>
+        <v>7.759622412520862E-05</v>
       </c>
       <c r="T22">
-        <v>8.003437594762631E-05</v>
+        <v>7.94593694367311E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H23">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I23">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J23">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.309272</v>
       </c>
       <c r="O23">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P23">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q23">
-        <v>11.776051149288</v>
+        <v>11.43416161282222</v>
       </c>
       <c r="R23">
-        <v>105.984460343592</v>
+        <v>102.9074545154</v>
       </c>
       <c r="S23">
-        <v>0.0001048995484903</v>
+        <v>0.0001091185423116297</v>
       </c>
       <c r="T23">
-        <v>0.0001089883250169336</v>
+        <v>0.0001117385628448458</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H24">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I24">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J24">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N24">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O24">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P24">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q24">
-        <v>21.188952768453</v>
+        <v>22.91819937676111</v>
       </c>
       <c r="R24">
-        <v>190.700574916077</v>
+        <v>206.26379439085</v>
       </c>
       <c r="S24">
-        <v>0.0001887484650172737</v>
+        <v>0.0002187130629319675</v>
       </c>
       <c r="T24">
-        <v>0.0001961055061514604</v>
+        <v>0.0002239645326054517</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H25">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I25">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J25">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N25">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O25">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P25">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q25">
-        <v>5.937615493947</v>
+        <v>5.220025256804167</v>
       </c>
       <c r="R25">
-        <v>35.625692963682</v>
+        <v>31.320151540825</v>
       </c>
       <c r="S25">
-        <v>5.289151486589022E-05</v>
+        <v>4.981576840873166E-05</v>
       </c>
       <c r="T25">
-        <v>3.663541420215401E-05</v>
+        <v>3.400792233890933E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H26">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I26">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J26">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N26">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O26">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P26">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q26">
-        <v>34.046230871241</v>
+        <v>29.27705156183889</v>
       </c>
       <c r="R26">
-        <v>306.416077841169</v>
+        <v>263.49346405655</v>
       </c>
       <c r="S26">
-        <v>0.0003032794440949443</v>
+        <v>0.0002793968895828614</v>
       </c>
       <c r="T26">
-        <v>0.0003151006758339976</v>
+        <v>0.0002861054248337559</v>
       </c>
     </row>
   </sheetData>
